--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22056" windowHeight="10115"/>
+    <workbookView windowWidth="22056" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>listingTime</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>long</t>
   </si>
   <si>
     <t xml:space="preserve"> 2016-9</t>
@@ -130,7 +130,7 @@
     <t>size</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32英寸</t>
+    <t xml:space="preserve"> 32.8英寸</t>
   </si>
 </sst>
 </file>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1139,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1341,13 +1341,13 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>38</v>
